--- a/src/test/resources/TestData/Jivi_Test_Data.xlsx
+++ b/src/test/resources/TestData/Jivi_Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test_Case_ Skill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B04B91-1167-4E21-9038-443B509406D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AFACD1-02A8-453F-8ACE-B4E43DA21DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{FD64DE87-D4F6-4997-BAAC-D24454267BB6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
   <si>
     <t>admin</t>
   </si>
@@ -59,9 +59,6 @@
     <t>pwd</t>
   </si>
   <si>
-    <t>JiViewsSystemDefinitionsTest</t>
-  </si>
-  <si>
     <t>VerifyLogin</t>
   </si>
   <si>
@@ -86,12 +83,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>VerifyCreateSkill</t>
-  </si>
-  <si>
-    <t>VerifyUpdateSkill</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -101,9 +92,6 @@
     <t>Automation_Test</t>
   </si>
   <si>
-    <t>VerifyCreateRole</t>
-  </si>
-  <si>
     <t>Role_Name</t>
   </si>
   <si>
@@ -134,14 +122,151 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>VerifyUpdateRole</t>
+    <t>Package_Name</t>
+  </si>
+  <si>
+    <t>skillSetUpTest</t>
+  </si>
+  <si>
+    <t>createNewSkill</t>
+  </si>
+  <si>
+    <t>updateSkill</t>
+  </si>
+  <si>
+    <r>
+      <t>JiviewsAutomation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.SystemDefination_Test</t>
+    </r>
+  </si>
+  <si>
+    <t>roleSetUpTest</t>
+  </si>
+  <si>
+    <t>verifyCreateNewRole</t>
+  </si>
+  <si>
+    <t>verifyUpdateRole</t>
+  </si>
+  <si>
+    <t>RoaserSetupTest</t>
+  </si>
+  <si>
+    <t>ShiftBand Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Band Code</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Shift Counter</t>
+  </si>
+  <si>
+    <t>Day Shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day Shift </t>
+  </si>
+  <si>
+    <t>1st  Shift</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Shift </t>
+  </si>
+  <si>
+    <t>createShiftBandDefinition</t>
+  </si>
+  <si>
+    <t>updateShiftBandDefinition</t>
+  </si>
+  <si>
+    <t>verifyWithCombinationShift</t>
+  </si>
+  <si>
+    <t>2nd Shift</t>
+  </si>
+  <si>
+    <t>Overtime</t>
+  </si>
+  <si>
+    <t>#3115ad</t>
+  </si>
+  <si>
+    <t>verifyWithOvertimeShift</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Start Range Begin</t>
+  </si>
+  <si>
+    <t>End Range Begin</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>06:59</t>
+  </si>
+  <si>
+    <t>19:01</t>
+  </si>
+  <si>
+    <t>06:45</t>
+  </si>
+  <si>
+    <t>#e86615</t>
+  </si>
+  <si>
+    <t>#e81566</t>
+  </si>
+  <si>
+    <t>#d0de11</t>
+  </si>
+  <si>
+    <t>OverTime Start</t>
+  </si>
+  <si>
+    <t>Over Time End</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>5:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +308,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -193,12 +324,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -221,30 +352,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal 1" xfId="1" xr:uid="{41565CED-8248-4079-BB1E-AB6BDFDF14B2}"/>
@@ -562,16 +752,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882E081F-02C7-46D7-AF78-5A47B331B7E3}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="13"/>
-    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="5"/>
+    <col min="2" max="2" width="44.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
@@ -580,130 +770,128 @@
     <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13">
+    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5">
         <v>0</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="4">
         <v>4</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="4">
         <v>5</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="4">
         <v>6</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="4">
         <v>7</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="4">
         <v>8</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="4">
         <v>9</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="4">
         <v>10</v>
       </c>
-      <c r="L1" s="12">
+      <c r="L1" s="4">
         <v>11</v>
       </c>
-      <c r="M1" s="12">
+      <c r="M1" s="4">
         <v>12</v>
       </c>
-      <c r="N1" s="12">
+      <c r="N1" s="4">
         <v>13</v>
       </c>
-      <c r="O1" s="12">
+      <c r="O1" s="4">
         <v>14</v>
       </c>
-      <c r="P1" s="12">
+      <c r="P1" s="4">
         <v>15</v>
       </c>
-      <c r="Q1" s="12">
+      <c r="Q1" s="4">
         <v>16</v>
       </c>
-      <c r="R1" s="12">
+      <c r="R1" s="4">
         <v>17</v>
       </c>
-      <c r="S1" s="12">
+      <c r="S1" s="4">
         <v>18</v>
       </c>
-      <c r="T1" s="12">
+      <c r="T1" s="4">
         <v>19</v>
       </c>
-      <c r="U1" s="12">
+      <c r="U1" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -717,26 +905,17 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
+      <c r="B4" s="16"/>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -746,38 +925,29 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
@@ -787,73 +957,57 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
+      <c r="B7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>0</v>
@@ -863,40 +1017,31 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>32</v>
+      <c r="B8" s="17"/>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
@@ -910,119 +1055,257 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="13">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="13">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11" s="13">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="13">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" s="13">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
@@ -1035,15 +1318,18 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15" s="13">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
@@ -1062,13 +1348,21 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/test/resources/TestData/Jivi_Test_Data.xlsx
+++ b/src/test/resources/TestData/Jivi_Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test_Case_ Skill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AFACD1-02A8-453F-8ACE-B4E43DA21DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E503D61F-D80C-4385-9F7E-146B2F78747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{FD64DE87-D4F6-4997-BAAC-D24454267BB6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
   <si>
     <t>admin</t>
   </si>
@@ -157,9 +157,6 @@
     <t>verifyUpdateRole</t>
   </si>
   <si>
-    <t>RoaserSetupTest</t>
-  </si>
-  <si>
     <t>ShiftBand Name</t>
   </si>
   <si>
@@ -260,13 +257,65 @@
   </si>
   <si>
     <t>5:00</t>
+  </si>
+  <si>
+    <t>Template Name</t>
+  </si>
+  <si>
+    <t>Template Description</t>
+  </si>
+  <si>
+    <t>Number Of Days</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 days pattern  Description </t>
+  </si>
+  <si>
+    <t>7 days pattern</t>
+  </si>
+  <si>
+    <r>
+      <t>JiviewsAutomation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.SystemDefination_Test</t>
+    </r>
+  </si>
+  <si>
+    <t>roasterSetupTest</t>
+  </si>
+  <si>
+    <t>verifyCreateRoaster</t>
+  </si>
+  <si>
+    <t>shiftBandTest</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>14 days pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 days pattern  Description </t>
+  </si>
+  <si>
+    <t>updateCreateRoaster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +363,17 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -329,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -389,12 +449,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -416,6 +489,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,7 +508,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal 1" xfId="1" xr:uid="{41565CED-8248-4079-BB1E-AB6BDFDF14B2}"/>
@@ -750,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882E081F-02C7-46D7-AF78-5A47B331B7E3}">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -766,7 +849,7 @@
     <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
@@ -884,7 +967,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -910,7 +993,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
@@ -942,7 +1025,7 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1000,7 +1083,7 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1036,7 +1119,7 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1067,57 +1150,57 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="M9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="P9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q9" s="11" t="s">
+      <c r="R9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="S9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T9" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>0</v>
@@ -1127,32 +1210,32 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="M10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -1162,12 +1245,12 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>0</v>
@@ -1177,32 +1260,32 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="M11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="O11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1212,12 +1295,12 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>0</v>
@@ -1227,19 +1310,19 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1256,10 +1339,10 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>0</v>
@@ -1269,56 +1352,62 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="M13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R13" s="1"/>
-      <c r="S13" s="21" t="s">
+      <c r="S13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T13" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="3"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1332,18 +1421,34 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="B15" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="25"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1356,12 +1461,51 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="24"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B15:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/TestData/Jivi_Test_Data.xlsx
+++ b/src/test/resources/TestData/Jivi_Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test_Case_ Skill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E503D61F-D80C-4385-9F7E-146B2F78747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75B3B9F-849C-4D39-8472-01CDB1B6AE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{FD64DE87-D4F6-4997-BAAC-D24454267BB6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
   <si>
     <t>admin</t>
   </si>
@@ -290,25 +290,22 @@
     </r>
   </si>
   <si>
-    <t>roasterSetupTest</t>
-  </si>
-  <si>
-    <t>verifyCreateRoaster</t>
-  </si>
-  <si>
     <t>shiftBandTest</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>14 days pattern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 days pattern  Description </t>
-  </si>
-  <si>
-    <t>updateCreateRoaster</t>
+    <t>No of Blocks</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>verifyCreateRoster</t>
+  </si>
+  <si>
+    <t>updateCreateRoster</t>
+  </si>
+  <si>
+    <t>rosterSetupTest</t>
   </si>
 </sst>
 </file>
@@ -490,6 +487,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -517,7 +515,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal 1" xfId="1" xr:uid="{41565CED-8248-4079-BB1E-AB6BDFDF14B2}"/>
@@ -835,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882E081F-02C7-46D7-AF78-5A47B331B7E3}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -967,7 +964,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -993,7 +990,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1025,7 +1022,7 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1083,7 +1080,7 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1119,7 +1116,7 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1193,11 +1190,11 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>46</v>
@@ -1245,9 +1242,9 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>47</v>
@@ -1295,9 +1292,9 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>48</v>
@@ -1339,7 +1336,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>52</v>
@@ -1406,7 +1403,9 @@
       <c r="J14" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="11"/>
+      <c r="K14" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="L14" s="11"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1421,14 +1420,14 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="23" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>0</v>
@@ -1446,9 +1445,11 @@
       <c r="J15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="25"/>
+      <c r="M15" s="16"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1461,12 +1462,12 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>0</v>
@@ -1475,20 +1476,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="24"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>

--- a/src/test/resources/TestData/Jivi_Test_Data.xlsx
+++ b/src/test/resources/TestData/Jivi_Test_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test_Case_ Skill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75B3B9F-849C-4D39-8472-01CDB1B6AE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FAB8CA-00E9-4421-A076-1975B4CFE685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{FD64DE87-D4F6-4997-BAAC-D24454267BB6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="129">
   <si>
     <t>admin</t>
   </si>
@@ -306,6 +306,144 @@
   </si>
   <si>
     <t>rosterSetupTest</t>
+  </si>
+  <si>
+    <t>Holiday Name</t>
+  </si>
+  <si>
+    <t>Holiday Date</t>
+  </si>
+  <si>
+    <t>Holiday Note</t>
+  </si>
+  <si>
+    <t>publicHolidayTest</t>
+  </si>
+  <si>
+    <t>verifyCreatePublicHoliday</t>
+  </si>
+  <si>
+    <t>New Year</t>
+  </si>
+  <si>
+    <t>01/01/2024</t>
+  </si>
+  <si>
+    <t>New Year Leave</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>25/12/2023</t>
+  </si>
+  <si>
+    <t>Christmas Leave</t>
+  </si>
+  <si>
+    <t>verifyUpdatePublicHoliday</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid From </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid To </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period Length </t>
+  </si>
+  <si>
+    <t>Shift Length Min</t>
+  </si>
+  <si>
+    <t>Shift Length Max</t>
+  </si>
+  <si>
+    <t>Cont Working Days-Min</t>
+  </si>
+  <si>
+    <t>Cont Working Days-Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days Per Period_Min </t>
+  </si>
+  <si>
+    <t>Days Per Period -Max</t>
+  </si>
+  <si>
+    <t>Time per period _Max</t>
+  </si>
+  <si>
+    <t>Cont. Working Days - Min</t>
+  </si>
+  <si>
+    <t>Cont. Working Days - Max</t>
+  </si>
+  <si>
+    <t>Cont. Off Days - Min.</t>
+  </si>
+  <si>
+    <t>Cont. Off Days - Max.</t>
+  </si>
+  <si>
+    <t>Shift Band Per Period - Min</t>
+  </si>
+  <si>
+    <t>Shift Band Per Period - Max</t>
+  </si>
+  <si>
+    <t>Min. Rest Hours</t>
+  </si>
+  <si>
+    <t>JiviewsAutomation.SystemDefination_Test</t>
+  </si>
+  <si>
+    <t>Deafault SCR</t>
+  </si>
+  <si>
+    <t>1/08/2023</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Cont off Days-Min</t>
+  </si>
+  <si>
+    <t>Cont off Days-Max</t>
+  </si>
+  <si>
+    <t>Time per Period-Min</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>verifyCreateSCR</t>
+  </si>
+  <si>
+    <t>SCRTest</t>
+  </si>
+  <si>
+    <t>Spacial SCR</t>
+  </si>
+  <si>
+    <t>setUpdateSCR</t>
   </si>
 </sst>
 </file>
@@ -464,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -488,6 +626,14 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,15 +650,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -830,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882E081F-02C7-46D7-AF78-5A47B331B7E3}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -841,7 +978,7 @@
     <col min="1" max="1" width="8.7265625" style="5"/>
     <col min="2" max="2" width="44.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
@@ -850,16 +987,26 @@
     <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5">
         <v>0</v>
       </c>
@@ -923,8 +1070,32 @@
       <c r="U1" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V1" s="4">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -960,11 +1131,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -986,11 +1157,11 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1018,11 +1189,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1050,7 +1221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1076,11 +1247,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1112,11 +1283,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1136,7 +1307,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1186,11 +1357,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1238,11 +1409,11 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="2" t="s">
         <v>77</v>
       </c>
@@ -1288,11 +1459,11 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="2" t="s">
         <v>77</v>
       </c>
@@ -1330,11 +1501,11 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="2" t="s">
         <v>77</v>
       </c>
@@ -1384,7 +1555,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1416,11 +1587,11 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1458,11 +1629,11 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="2" t="s">
         <v>82</v>
       </c>
@@ -1484,25 +1655,315 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="25"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="W20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="X20" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y20" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z20" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA20" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC20" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/TestData/Jivi_Test_Data.xlsx
+++ b/src/test/resources/TestData/Jivi_Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test_Case_ Skill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FAB8CA-00E9-4421-A076-1975B4CFE685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FD8B4C-E61C-4D74-BC27-662E9569134B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{FD64DE87-D4F6-4997-BAAC-D24454267BB6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="136">
   <si>
     <t>admin</t>
   </si>
@@ -444,6 +444,27 @@
   </si>
   <si>
     <t>setUpdateSCR</t>
+  </si>
+  <si>
+    <t>Role Group Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTGO Operator </t>
+  </si>
+  <si>
+    <t>roleGroupTest</t>
+  </si>
+  <si>
+    <t>verifyCreateRoleGroups</t>
+  </si>
+  <si>
+    <t>verifyUpdateRoleGroups</t>
+  </si>
+  <si>
+    <t>verifySearchRoleGroups</t>
+  </si>
+  <si>
+    <t>QCO Operator</t>
   </si>
 </sst>
 </file>
@@ -602,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -650,6 +671,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -967,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882E081F-02C7-46D7-AF78-5A47B331B7E3}">
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -982,7 +1006,7 @@
     <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.26953125" bestFit="1" customWidth="1"/>
@@ -1950,14 +1974,115 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
+      <c r="B24" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B3:B5"/>

--- a/src/test/resources/TestData/Jivi_Test_Data.xlsx
+++ b/src/test/resources/TestData/Jivi_Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test_Case_ Skill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FD8B4C-E61C-4D74-BC27-662E9569134B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59FC7BC-26E3-4B3F-B89F-7AF392ECC480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{FD64DE87-D4F6-4997-BAAC-D24454267BB6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="138">
   <si>
     <t>admin</t>
   </si>
@@ -465,6 +465,12 @@
   </si>
   <si>
     <t>QCO Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QCO </t>
+  </si>
+  <si>
+    <t>QCO</t>
   </si>
 </sst>
 </file>
@@ -649,6 +655,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,9 +680,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -993,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882E081F-02C7-46D7-AF78-5A47B331B7E3}">
   <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1159,7 +1165,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1185,7 +1191,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1217,7 +1223,7 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1275,7 +1281,7 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1311,7 +1317,7 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1325,10 +1331,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
@@ -1385,7 +1399,7 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="25" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1437,7 +1451,7 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="2" t="s">
         <v>77</v>
       </c>
@@ -1487,7 +1501,7 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="2" t="s">
         <v>77</v>
       </c>
@@ -1529,7 +1543,7 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="2" t="s">
         <v>77</v>
       </c>
@@ -1615,7 +1629,7 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1657,7 +1671,7 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2" t="s">
         <v>82</v>
       </c>
@@ -1705,7 +1719,7 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1737,7 +1751,7 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="2" t="s">
         <v>86</v>
       </c>
@@ -1844,7 +1858,7 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="20" t="s">
         <v>114</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1929,7 +1943,7 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="1" t="s">
         <v>126</v>
       </c>
@@ -1990,7 +2004,7 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="19" t="s">
         <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2016,7 +2030,7 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="27"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="1" t="s">
         <v>131</v>
       </c>
@@ -2040,7 +2054,7 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="27"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="1" t="s">
         <v>131</v>
       </c>
